--- a/utils/1050.xlsx
+++ b/utils/1050.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>首数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,34 @@
   </si>
   <si>
     <t>歌谱文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣哉三一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣哉，圣哉，圣哉！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颂赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚伯拉罕之神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颂赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣父</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,14 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -421,6 +451,40 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
